--- a/TestDate/TestData.xlsx
+++ b/TestDate/TestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="3765"/>
   </bookViews>
   <sheets>
     <sheet name="Sign" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J10"/>
 </workbook>
 </file>
 
@@ -373,27 +374,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
